--- a/data/Lakes/LakeWestmere_e88f03fff6.xlsx
+++ b/data/Lakes/LakeWestmere_e88f03fff6.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -554,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -612,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -701,7 +701,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -763,7 +763,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -790,7 +790,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -817,7 +817,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -879,7 +879,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -941,7 +941,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -968,7 +968,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -995,7 +995,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3424,7 +3424,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5030,7 +5030,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5190,7 +5190,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5642,7 +5642,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -5839,7 +5839,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -5989,7 +5989,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -6907,7 +6907,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7172,7 +7172,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7478,7 +7478,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7519,7 +7519,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -7638,7 +7638,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -7675,7 +7675,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -7784,7 +7784,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -7825,7 +7825,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -7903,7 +7903,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8049,7 +8049,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8090,7 +8090,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8209,7 +8209,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8287,7 +8287,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8437,7 +8437,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8515,7 +8515,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -8593,7 +8593,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -8702,7 +8702,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -8862,7 +8862,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">

--- a/data/Lakes/LakeWestmere_e88f03fff6.xlsx
+++ b/data/Lakes/LakeWestmere_e88f03fff6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="314">
   <si>
     <t>site name</t>
   </si>
@@ -73,7 +73,7 @@
     <t>49.000</t>
   </si>
   <si>
-    <t>&lt;4</t>
+    <t>&lt;4.0</t>
   </si>
   <si>
     <t>1.560</t>
@@ -88,7 +88,7 @@
     <t>11.000</t>
   </si>
   <si>
-    <t>8</t>
+    <t>8.0</t>
   </si>
   <si>
     <t>0.5560</t>
@@ -106,7 +106,7 @@
     <t>2.600</t>
   </si>
   <si>
-    <t>44</t>
+    <t>44.0</t>
   </si>
   <si>
     <t>0.3770</t>
@@ -124,7 +124,7 @@
     <t>14.000</t>
   </si>
   <si>
-    <t>12</t>
+    <t>12.0</t>
   </si>
   <si>
     <t>0.0260</t>
@@ -142,7 +142,7 @@
     <t>5.000</t>
   </si>
   <si>
-    <t>25</t>
+    <t>25.0</t>
   </si>
   <si>
     <t>0.0150</t>
@@ -226,7 +226,7 @@
     <t>12.000</t>
   </si>
   <si>
-    <t>4</t>
+    <t>4.0</t>
   </si>
   <si>
     <t>&lt;0.0020</t>
@@ -259,7 +259,7 @@
     <t>218.000</t>
   </si>
   <si>
-    <t>30</t>
+    <t>30.0</t>
   </si>
   <si>
     <t>7.680</t>
@@ -277,7 +277,7 @@
     <t>28.000</t>
   </si>
   <si>
-    <t>16</t>
+    <t>16.0</t>
   </si>
   <si>
     <t>1.020</t>
@@ -334,7 +334,7 @@
     <t>24.000</t>
   </si>
   <si>
-    <t>58</t>
+    <t>58.0</t>
   </si>
   <si>
     <t>8.340</t>
@@ -355,7 +355,7 @@
     <t>64.000</t>
   </si>
   <si>
-    <t>21</t>
+    <t>21.0</t>
   </si>
   <si>
     <t>9.070</t>
@@ -469,7 +469,7 @@
     <t>31.000</t>
   </si>
   <si>
-    <t>54</t>
+    <t>54.0</t>
   </si>
   <si>
     <t>7.840</t>
@@ -511,7 +511,7 @@
     <t>5.800</t>
   </si>
   <si>
-    <t>70</t>
+    <t>70.0</t>
   </si>
   <si>
     <t>6.910</t>
@@ -535,7 +535,7 @@
     <t>3.600</t>
   </si>
   <si>
-    <t>34</t>
+    <t>34.0</t>
   </si>
   <si>
     <t>6.660</t>
@@ -700,6 +700,9 @@
     <t>0.02590</t>
   </si>
   <si>
+    <t>24.8</t>
+  </si>
+  <si>
     <t>6.840</t>
   </si>
   <si>
@@ -721,7 +724,7 @@
     <t>2.400</t>
   </si>
   <si>
-    <t>73</t>
+    <t>73.2</t>
   </si>
   <si>
     <t>6.340</t>
@@ -757,6 +760,9 @@
     <t>20.000</t>
   </si>
   <si>
+    <t>12.4</t>
+  </si>
+  <si>
     <t>8.000</t>
   </si>
   <si>
@@ -766,7 +772,7 @@
     <t>0.0110</t>
   </si>
   <si>
-    <t>40</t>
+    <t>40.4</t>
   </si>
   <si>
     <t>8.510</t>
@@ -775,6 +781,129 @@
     <t>1.170</t>
   </si>
   <si>
+    <t>3.82780</t>
+  </si>
+  <si>
+    <t>29.6</t>
+  </si>
+  <si>
+    <t>7.450</t>
+  </si>
+  <si>
+    <t>1.290</t>
+  </si>
+  <si>
+    <t>0.1800</t>
+  </si>
+  <si>
+    <t>0.00000</t>
+  </si>
+  <si>
+    <t>55.000</t>
+  </si>
+  <si>
+    <t>7.990</t>
+  </si>
+  <si>
+    <t>0.3830</t>
+  </si>
+  <si>
+    <t>0.00140</t>
+  </si>
+  <si>
+    <t>0.1240</t>
+  </si>
+  <si>
+    <t>9.030</t>
+  </si>
+  <si>
+    <t>0.0030</t>
+  </si>
+  <si>
+    <t>0.9300</t>
+  </si>
+  <si>
+    <t>0.3200</t>
+  </si>
+  <si>
+    <t>0.00090</t>
+  </si>
+  <si>
+    <t>36.000</t>
+  </si>
+  <si>
+    <t>7.670</t>
+  </si>
+  <si>
+    <t>0.3240</t>
+  </si>
+  <si>
+    <t>0.00040</t>
+  </si>
+  <si>
+    <t>&lt;0.0500</t>
+  </si>
+  <si>
+    <t>75.000</t>
+  </si>
+  <si>
+    <t>8.290</t>
+  </si>
+  <si>
+    <t>1.770</t>
+  </si>
+  <si>
+    <t>0.1650</t>
+  </si>
+  <si>
+    <t>0.00310</t>
+  </si>
+  <si>
+    <t>25.000</t>
+  </si>
+  <si>
+    <t>0.00740</t>
+  </si>
+  <si>
+    <t>0.0910</t>
+  </si>
+  <si>
+    <t>60.300</t>
+  </si>
+  <si>
+    <t>0.1310</t>
+  </si>
+  <si>
+    <t>0.07500</t>
+  </si>
+  <si>
+    <t>48.500</t>
+  </si>
+  <si>
+    <t>8.330</t>
+  </si>
+  <si>
+    <t>0.0050</t>
+  </si>
+  <si>
+    <t>1.100</t>
+  </si>
+  <si>
+    <t>0.03090</t>
+  </si>
+  <si>
+    <t>47.600</t>
+  </si>
+  <si>
+    <t>16.4</t>
+  </si>
+  <si>
+    <t>0.7800</t>
+  </si>
+  <si>
+    <t>0.07600</t>
+  </si>
+  <si>
     <t>Science - Lakes Sampling</t>
   </si>
   <si>
@@ -809,6 +938,9 @@
   </si>
   <si>
     <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+  </si>
+  <si>
+    <t>APHA Online Edition Method 4500 NH3 H.</t>
   </si>
   <si>
     <t>g/m3</t>
@@ -1185,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I309"/>
+  <dimension ref="A1:I381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,7 +1366,7 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H2">
         <v>600</v>
@@ -1254,7 +1386,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H3">
         <v>600</v>
@@ -1274,7 +1406,7 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H4">
         <v>600</v>
@@ -1328,7 +1460,7 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H7">
         <v>600</v>
@@ -1348,7 +1480,7 @@
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H8">
         <v>600</v>
@@ -1368,7 +1500,7 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H9">
         <v>600</v>
@@ -1388,7 +1520,7 @@
         <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H10">
         <v>600</v>
@@ -1442,7 +1574,7 @@
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H13">
         <v>600</v>
@@ -1462,7 +1594,7 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H14">
         <v>600</v>
@@ -1482,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H15">
         <v>600</v>
@@ -1502,7 +1634,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H16">
         <v>600</v>
@@ -1556,7 +1688,7 @@
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H19">
         <v>600</v>
@@ -1576,7 +1708,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H20">
         <v>600</v>
@@ -1596,7 +1728,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H21">
         <v>600</v>
@@ -1616,7 +1748,7 @@
         <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H22">
         <v>600</v>
@@ -1670,7 +1802,7 @@
         <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H25">
         <v>600</v>
@@ -1690,7 +1822,7 @@
         <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H26">
         <v>600</v>
@@ -1710,7 +1842,7 @@
         <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H27">
         <v>600</v>
@@ -1730,7 +1862,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H28">
         <v>600</v>
@@ -1784,13 +1916,13 @@
         <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F31" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="G31" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H31">
         <v>600</v>
@@ -1810,13 +1942,13 @@
         <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F32" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G32" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H32">
         <v>600</v>
@@ -1836,13 +1968,13 @@
         <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F33" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G33" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H33">
         <v>600</v>
@@ -1862,10 +1994,10 @@
         <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F34" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="H34">
         <v>600</v>
@@ -1885,10 +2017,10 @@
         <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F35" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="H35">
         <v>600</v>
@@ -1908,13 +2040,13 @@
         <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F36" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="G36" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H36">
         <v>600</v>
@@ -1934,13 +2066,13 @@
         <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F37" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G37" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H37">
         <v>600</v>
@@ -1960,13 +2092,13 @@
         <v>51</v>
       </c>
       <c r="E38" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F38" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H38">
         <v>600</v>
@@ -1986,10 +2118,10 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F39" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="H39">
         <v>600</v>
@@ -2009,10 +2141,10 @@
         <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F40" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="H40">
         <v>600</v>
@@ -2032,13 +2164,13 @@
         <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F41" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="G41" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H41">
         <v>600</v>
@@ -2058,13 +2190,13 @@
         <v>55</v>
       </c>
       <c r="E42" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F42" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G42" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H42">
         <v>600</v>
@@ -2084,13 +2216,13 @@
         <v>56</v>
       </c>
       <c r="E43" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F43" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G43" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H43">
         <v>600</v>
@@ -2110,10 +2242,10 @@
         <v>57</v>
       </c>
       <c r="E44" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F44" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="H44">
         <v>600</v>
@@ -2133,10 +2265,10 @@
         <v>58</v>
       </c>
       <c r="E45" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F45" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="H45">
         <v>600</v>
@@ -2156,13 +2288,13 @@
         <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F46" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="G46" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H46">
         <v>600</v>
@@ -2182,13 +2314,13 @@
         <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F47" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G47" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H47">
         <v>600</v>
@@ -2208,13 +2340,13 @@
         <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F48" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G48" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H48">
         <v>600</v>
@@ -2234,13 +2366,13 @@
         <v>61</v>
       </c>
       <c r="E49" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F49" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G49" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H49">
         <v>600</v>
@@ -2260,10 +2392,10 @@
         <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F50" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="H50">
         <v>600</v>
@@ -2283,10 +2415,10 @@
         <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F51" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="H51">
         <v>600</v>
@@ -2306,13 +2438,13 @@
         <v>22</v>
       </c>
       <c r="E52" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F52" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="G52" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H52">
         <v>600</v>
@@ -2332,13 +2464,13 @@
         <v>64</v>
       </c>
       <c r="E53" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F53" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G53" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H53">
         <v>600</v>
@@ -2358,13 +2490,13 @@
         <v>36</v>
       </c>
       <c r="E54" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F54" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G54" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H54">
         <v>600</v>
@@ -2384,13 +2516,13 @@
         <v>65</v>
       </c>
       <c r="E55" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F55" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G55" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H55">
         <v>600</v>
@@ -2410,10 +2542,10 @@
         <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F56" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -2433,10 +2565,10 @@
         <v>67</v>
       </c>
       <c r="E57" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F57" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="H57">
         <v>600</v>
@@ -2456,13 +2588,13 @@
         <v>68</v>
       </c>
       <c r="E58" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F58" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="G58" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H58">
         <v>600</v>
@@ -2482,13 +2614,13 @@
         <v>69</v>
       </c>
       <c r="E59" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F59" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G59" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H59">
         <v>600</v>
@@ -2508,13 +2640,13 @@
         <v>70</v>
       </c>
       <c r="E60" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F60" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G60" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H60">
         <v>600</v>
@@ -2534,13 +2666,13 @@
         <v>71</v>
       </c>
       <c r="E61" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F61" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G61" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H61">
         <v>600</v>
@@ -2560,10 +2692,10 @@
         <v>72</v>
       </c>
       <c r="E62" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F62" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="H62">
         <v>600</v>
@@ -2583,10 +2715,10 @@
         <v>73</v>
       </c>
       <c r="E63" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F63" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="H63">
         <v>600</v>
@@ -2606,7 +2738,7 @@
         <v>74</v>
       </c>
       <c r="G64" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H64">
         <v>600</v>
@@ -2626,13 +2758,13 @@
         <v>49</v>
       </c>
       <c r="E65" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F65" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="G65" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H65">
         <v>600</v>
@@ -2655,13 +2787,13 @@
         <v>75</v>
       </c>
       <c r="E66" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F66" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G66" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H66">
         <v>600</v>
@@ -2684,13 +2816,13 @@
         <v>19</v>
       </c>
       <c r="E67" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F67" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G67" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H67">
         <v>600</v>
@@ -2713,7 +2845,7 @@
         <v>76</v>
       </c>
       <c r="E68" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G68" t="s">
         <v>8</v>
@@ -2739,13 +2871,13 @@
         <v>71</v>
       </c>
       <c r="E69" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F69" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G69" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H69">
         <v>600</v>
@@ -2768,10 +2900,10 @@
         <v>26</v>
       </c>
       <c r="E70" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F70" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="H70">
         <v>600</v>
@@ -2794,10 +2926,10 @@
         <v>77</v>
       </c>
       <c r="E71" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F71" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="H71">
         <v>600</v>
@@ -2820,7 +2952,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H72">
         <v>600</v>
@@ -2840,13 +2972,13 @@
         <v>79</v>
       </c>
       <c r="E73" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F73" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="G73" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H73">
         <v>600</v>
@@ -2869,13 +3001,13 @@
         <v>80</v>
       </c>
       <c r="E74" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F74" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G74" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H74">
         <v>500</v>
@@ -2898,13 +3030,13 @@
         <v>81</v>
       </c>
       <c r="E75" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F75" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G75" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -2927,7 +3059,7 @@
         <v>82</v>
       </c>
       <c r="E76" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G76" t="s">
         <v>8</v>
@@ -2953,13 +3085,13 @@
         <v>71</v>
       </c>
       <c r="E77" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F77" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G77" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H77">
         <v>600</v>
@@ -2982,10 +3114,10 @@
         <v>83</v>
       </c>
       <c r="E78" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F78" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H78">
         <v>600</v>
@@ -3008,10 +3140,10 @@
         <v>84</v>
       </c>
       <c r="E79" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F79" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H79">
         <v>600</v>
@@ -3034,7 +3166,7 @@
         <v>85</v>
       </c>
       <c r="G80" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H80">
         <v>600</v>
@@ -3054,13 +3186,13 @@
         <v>17</v>
       </c>
       <c r="E81" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F81" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="G81" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H81">
         <v>600</v>
@@ -3080,13 +3212,13 @@
         <v>86</v>
       </c>
       <c r="E82" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F82" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G82" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H82">
         <v>600</v>
@@ -3106,13 +3238,13 @@
         <v>87</v>
       </c>
       <c r="E83" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F83" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G83" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -3132,13 +3264,13 @@
         <v>71</v>
       </c>
       <c r="E84" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F84" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G84" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H84">
         <v>600</v>
@@ -3158,10 +3290,10 @@
         <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F85" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H85">
         <v>600</v>
@@ -3181,10 +3313,10 @@
         <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F86" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H86">
         <v>600</v>
@@ -3204,7 +3336,7 @@
         <v>90</v>
       </c>
       <c r="G87" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H87">
         <v>600</v>
@@ -3224,13 +3356,13 @@
         <v>91</v>
       </c>
       <c r="E88" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F88" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="G88" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H88">
         <v>600</v>
@@ -3253,13 +3385,13 @@
         <v>75</v>
       </c>
       <c r="E89" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F89" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G89" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H89">
         <v>600</v>
@@ -3282,13 +3414,13 @@
         <v>19</v>
       </c>
       <c r="E90" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F90" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G90" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H90">
         <v>600</v>
@@ -3311,7 +3443,7 @@
         <v>92</v>
       </c>
       <c r="E91" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G91" t="s">
         <v>8</v>
@@ -3337,13 +3469,13 @@
         <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F92" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G92" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H92">
         <v>600</v>
@@ -3366,10 +3498,10 @@
         <v>94</v>
       </c>
       <c r="E93" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F93" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H93">
         <v>600</v>
@@ -3392,10 +3524,10 @@
         <v>95</v>
       </c>
       <c r="E94" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F94" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H94">
         <v>600</v>
@@ -3418,7 +3550,7 @@
         <v>96</v>
       </c>
       <c r="G95" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H95">
         <v>600</v>
@@ -3438,13 +3570,13 @@
         <v>97</v>
       </c>
       <c r="E96" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F96" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="G96" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H96">
         <v>600</v>
@@ -3467,13 +3599,13 @@
         <v>98</v>
       </c>
       <c r="E97" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F97" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G97" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H97">
         <v>600</v>
@@ -3496,13 +3628,13 @@
         <v>70</v>
       </c>
       <c r="E98" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F98" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G98" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H98">
         <v>600</v>
@@ -3525,7 +3657,7 @@
         <v>99</v>
       </c>
       <c r="E99" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G99" t="s">
         <v>8</v>
@@ -3551,13 +3683,13 @@
         <v>100</v>
       </c>
       <c r="E100" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F100" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G100" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H100">
         <v>600</v>
@@ -3580,10 +3712,10 @@
         <v>101</v>
       </c>
       <c r="E101" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F101" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H101">
         <v>600</v>
@@ -3606,10 +3738,10 @@
         <v>102</v>
       </c>
       <c r="E102" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F102" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H102">
         <v>600</v>
@@ -3632,7 +3764,7 @@
         <v>103</v>
       </c>
       <c r="G103" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H103">
         <v>600</v>
@@ -3652,13 +3784,13 @@
         <v>104</v>
       </c>
       <c r="E104" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F104" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="G104" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H104">
         <v>600</v>
@@ -3681,13 +3813,13 @@
         <v>105</v>
       </c>
       <c r="E105" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F105" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G105" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H105">
         <v>600</v>
@@ -3710,13 +3842,13 @@
         <v>106</v>
       </c>
       <c r="E106" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F106" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G106" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H106">
         <v>600</v>
@@ -3739,7 +3871,7 @@
         <v>107</v>
       </c>
       <c r="E107" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G107" t="s">
         <v>8</v>
@@ -3765,13 +3897,13 @@
         <v>71</v>
       </c>
       <c r="E108" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F108" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G108" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H108">
         <v>600</v>
@@ -3794,10 +3926,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F109" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H109">
         <v>600</v>
@@ -3820,10 +3952,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F110" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H110">
         <v>600</v>
@@ -3846,7 +3978,7 @@
         <v>110</v>
       </c>
       <c r="G111" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H111">
         <v>600</v>
@@ -3866,13 +3998,13 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F112" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="G112" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H112">
         <v>600</v>
@@ -3895,13 +4027,13 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F113" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G113" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H113">
         <v>600</v>
@@ -3924,13 +4056,13 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F114" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G114" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H114">
         <v>600</v>
@@ -3953,7 +4085,7 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G115" t="s">
         <v>8</v>
@@ -3979,13 +4111,13 @@
         <v>71</v>
       </c>
       <c r="E116" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F116" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G116" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H116">
         <v>600</v>
@@ -4008,10 +4140,10 @@
         <v>115</v>
       </c>
       <c r="E117" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F117" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H117">
         <v>600</v>
@@ -4034,10 +4166,10 @@
         <v>116</v>
       </c>
       <c r="E118" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F118" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H118">
         <v>600</v>
@@ -4060,7 +4192,7 @@
         <v>117</v>
       </c>
       <c r="G119" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H119">
         <v>600</v>
@@ -4080,13 +4212,13 @@
         <v>17</v>
       </c>
       <c r="E120" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F120" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="G120" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H120">
         <v>600</v>
@@ -4109,13 +4241,13 @@
         <v>50</v>
       </c>
       <c r="E121" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F121" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G121" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H121">
         <v>600</v>
@@ -4138,13 +4270,13 @@
         <v>81</v>
       </c>
       <c r="E122" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F122" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G122" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H122">
         <v>600</v>
@@ -4167,7 +4299,7 @@
         <v>118</v>
       </c>
       <c r="E123" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G123" t="s">
         <v>8</v>
@@ -4193,13 +4325,13 @@
         <v>71</v>
       </c>
       <c r="E124" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F124" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G124" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H124">
         <v>600</v>
@@ -4222,10 +4354,10 @@
         <v>119</v>
       </c>
       <c r="E125" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F125" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H125">
         <v>600</v>
@@ -4248,10 +4380,10 @@
         <v>100</v>
       </c>
       <c r="E126" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F126" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H126">
         <v>600</v>
@@ -4274,13 +4406,13 @@
         <v>93</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F127" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="G127" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H127">
         <v>600</v>
@@ -4303,13 +4435,13 @@
         <v>120</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F128" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G128" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H128">
         <v>600</v>
@@ -4332,13 +4464,13 @@
         <v>24</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F129" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G129" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H129">
         <v>600</v>
@@ -4361,7 +4493,7 @@
         <v>121</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G130" t="s">
         <v>8</v>
@@ -4387,13 +4519,13 @@
         <v>71</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G131" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H131">
         <v>600</v>
@@ -4416,10 +4548,10 @@
         <v>122</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F132" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H132">
         <v>600</v>
@@ -4442,10 +4574,10 @@
         <v>123</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H133">
         <v>600</v>
@@ -4468,7 +4600,7 @@
         <v>124</v>
       </c>
       <c r="G134" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H134">
         <v>600</v>
@@ -4488,13 +4620,13 @@
         <v>104</v>
       </c>
       <c r="E135" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="G135" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H135">
         <v>600</v>
@@ -4517,13 +4649,13 @@
         <v>125</v>
       </c>
       <c r="E136" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F136" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G136" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H136">
         <v>600</v>
@@ -4546,13 +4678,13 @@
         <v>19</v>
       </c>
       <c r="E137" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F137" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G137" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H137">
         <v>600</v>
@@ -4575,7 +4707,7 @@
         <v>126</v>
       </c>
       <c r="E138" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G138" t="s">
         <v>8</v>
@@ -4601,13 +4733,13 @@
         <v>71</v>
       </c>
       <c r="E139" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F139" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G139" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H139">
         <v>600</v>
@@ -4630,10 +4762,10 @@
         <v>127</v>
       </c>
       <c r="E140" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F140" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H140">
         <v>600</v>
@@ -4656,10 +4788,10 @@
         <v>128</v>
       </c>
       <c r="E141" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F141" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H141">
         <v>600</v>
@@ -4682,7 +4814,7 @@
         <v>129</v>
       </c>
       <c r="G142" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H142">
         <v>600</v>
@@ -4702,13 +4834,13 @@
         <v>130</v>
       </c>
       <c r="E143" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F143" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G143" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H143">
         <v>600</v>
@@ -4731,13 +4863,13 @@
         <v>131</v>
       </c>
       <c r="E144" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F144" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G144" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H144">
         <v>600</v>
@@ -4760,13 +4892,13 @@
         <v>19</v>
       </c>
       <c r="E145" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F145" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G145" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H145">
         <v>600</v>
@@ -4789,7 +4921,7 @@
         <v>132</v>
       </c>
       <c r="E146" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G146" t="s">
         <v>8</v>
@@ -4815,13 +4947,13 @@
         <v>71</v>
       </c>
       <c r="E147" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F147" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G147" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H147">
         <v>600</v>
@@ -4844,10 +4976,10 @@
         <v>133</v>
       </c>
       <c r="E148" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F148" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H148">
         <v>600</v>
@@ -4870,10 +5002,10 @@
         <v>134</v>
       </c>
       <c r="E149" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F149" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H149">
         <v>600</v>
@@ -4896,7 +5028,7 @@
         <v>135</v>
       </c>
       <c r="G150" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H150">
         <v>600</v>
@@ -4916,13 +5048,13 @@
         <v>136</v>
       </c>
       <c r="E151" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F151" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G151" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H151">
         <v>600</v>
@@ -4945,13 +5077,13 @@
         <v>137</v>
       </c>
       <c r="E152" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F152" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G152" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H152">
         <v>600</v>
@@ -4974,13 +5106,13 @@
         <v>70</v>
       </c>
       <c r="E153" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F153" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G153" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H153">
         <v>600</v>
@@ -5003,7 +5135,7 @@
         <v>138</v>
       </c>
       <c r="E154" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G154" t="s">
         <v>8</v>
@@ -5029,13 +5161,13 @@
         <v>71</v>
       </c>
       <c r="E155" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F155" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G155" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H155">
         <v>600</v>
@@ -5058,10 +5190,10 @@
         <v>139</v>
       </c>
       <c r="E156" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F156" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H156">
         <v>600</v>
@@ -5084,10 +5216,10 @@
         <v>140</v>
       </c>
       <c r="E157" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F157" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H157">
         <v>600</v>
@@ -5110,7 +5242,7 @@
         <v>141</v>
       </c>
       <c r="G158" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H158">
         <v>600</v>
@@ -5130,13 +5262,13 @@
         <v>142</v>
       </c>
       <c r="E159" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F159" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G159" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H159">
         <v>600</v>
@@ -5159,13 +5291,13 @@
         <v>143</v>
       </c>
       <c r="E160" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F160" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G160" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H160">
         <v>600</v>
@@ -5188,13 +5320,13 @@
         <v>19</v>
       </c>
       <c r="E161" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F161" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G161" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H161">
         <v>600</v>
@@ -5217,7 +5349,7 @@
         <v>144</v>
       </c>
       <c r="E162" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G162" t="s">
         <v>8</v>
@@ -5243,13 +5375,13 @@
         <v>145</v>
       </c>
       <c r="E163" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F163" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G163" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H163">
         <v>600</v>
@@ -5272,10 +5404,10 @@
         <v>146</v>
       </c>
       <c r="E164" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F164" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H164">
         <v>600</v>
@@ -5298,10 +5430,10 @@
         <v>147</v>
       </c>
       <c r="E165" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F165" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H165">
         <v>600</v>
@@ -5324,7 +5456,7 @@
         <v>148</v>
       </c>
       <c r="G166" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H166">
         <v>600</v>
@@ -5344,13 +5476,13 @@
         <v>149</v>
       </c>
       <c r="E167" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F167" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G167" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H167">
         <v>600</v>
@@ -5373,13 +5505,13 @@
         <v>150</v>
       </c>
       <c r="E168" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F168" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G168" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H168">
         <v>600</v>
@@ -5402,13 +5534,13 @@
         <v>151</v>
       </c>
       <c r="E169" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F169" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G169" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H169">
         <v>600</v>
@@ -5431,7 +5563,7 @@
         <v>152</v>
       </c>
       <c r="E170" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G170" t="s">
         <v>8</v>
@@ -5457,13 +5589,13 @@
         <v>153</v>
       </c>
       <c r="E171" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F171" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G171" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H171">
         <v>600</v>
@@ -5486,10 +5618,10 @@
         <v>154</v>
       </c>
       <c r="E172" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F172" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H172">
         <v>600</v>
@@ -5512,10 +5644,10 @@
         <v>155</v>
       </c>
       <c r="E173" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F173" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H173">
         <v>600</v>
@@ -5538,7 +5670,7 @@
         <v>156</v>
       </c>
       <c r="G174" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H174">
         <v>600</v>
@@ -5558,13 +5690,13 @@
         <v>157</v>
       </c>
       <c r="E175" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F175" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G175" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H175">
         <v>600</v>
@@ -5587,13 +5719,13 @@
         <v>143</v>
       </c>
       <c r="E176" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F176" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G176" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H176">
         <v>600</v>
@@ -5616,13 +5748,13 @@
         <v>24</v>
       </c>
       <c r="E177" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F177" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G177" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H177">
         <v>600</v>
@@ -5645,7 +5777,7 @@
         <v>158</v>
       </c>
       <c r="E178" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G178" t="s">
         <v>8</v>
@@ -5671,13 +5803,13 @@
         <v>159</v>
       </c>
       <c r="E179" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F179" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G179" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H179">
         <v>600</v>
@@ -5700,10 +5832,10 @@
         <v>160</v>
       </c>
       <c r="E180" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F180" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H180">
         <v>600</v>
@@ -5726,10 +5858,10 @@
         <v>161</v>
       </c>
       <c r="E181" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F181" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H181">
         <v>600</v>
@@ -5752,7 +5884,7 @@
         <v>162</v>
       </c>
       <c r="G182" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H182">
         <v>600</v>
@@ -5772,13 +5904,13 @@
         <v>163</v>
       </c>
       <c r="E183" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F183" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G183" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H183">
         <v>600</v>
@@ -5801,13 +5933,13 @@
         <v>164</v>
       </c>
       <c r="E184" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F184" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G184" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H184">
         <v>600</v>
@@ -5830,13 +5962,13 @@
         <v>165</v>
       </c>
       <c r="E185" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F185" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G185" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H185">
         <v>600</v>
@@ -5859,7 +5991,7 @@
         <v>166</v>
       </c>
       <c r="E186" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G186" t="s">
         <v>8</v>
@@ -5885,13 +6017,13 @@
         <v>167</v>
       </c>
       <c r="E187" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F187" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G187" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H187">
         <v>600</v>
@@ -5914,10 +6046,10 @@
         <v>168</v>
       </c>
       <c r="E188" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F188" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H188">
         <v>600</v>
@@ -5940,10 +6072,10 @@
         <v>169</v>
       </c>
       <c r="E189" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F189" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H189">
         <v>600</v>
@@ -5966,7 +6098,7 @@
         <v>170</v>
       </c>
       <c r="G190" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H190">
         <v>600</v>
@@ -5986,13 +6118,13 @@
         <v>171</v>
       </c>
       <c r="E191" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F191" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G191" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H191">
         <v>600</v>
@@ -6015,13 +6147,13 @@
         <v>172</v>
       </c>
       <c r="E192" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F192" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G192" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H192">
         <v>600</v>
@@ -6044,13 +6176,13 @@
         <v>173</v>
       </c>
       <c r="E193" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F193" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G193" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H193">
         <v>600</v>
@@ -6073,7 +6205,7 @@
         <v>174</v>
       </c>
       <c r="E194" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G194" t="s">
         <v>8</v>
@@ -6099,13 +6231,13 @@
         <v>175</v>
       </c>
       <c r="E195" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F195" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G195" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H195">
         <v>600</v>
@@ -6128,10 +6260,10 @@
         <v>176</v>
       </c>
       <c r="E196" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F196" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H196">
         <v>600</v>
@@ -6154,10 +6286,10 @@
         <v>177</v>
       </c>
       <c r="E197" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F197" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H197">
         <v>600</v>
@@ -6180,7 +6312,7 @@
         <v>178</v>
       </c>
       <c r="G198" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H198">
         <v>600</v>
@@ -6200,13 +6332,13 @@
         <v>179</v>
       </c>
       <c r="E199" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F199" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G199" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H199">
         <v>600</v>
@@ -6229,13 +6361,13 @@
         <v>180</v>
       </c>
       <c r="E200" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F200" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G200" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H200">
         <v>600</v>
@@ -6258,13 +6390,13 @@
         <v>70</v>
       </c>
       <c r="E201" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F201" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G201" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H201">
         <v>600</v>
@@ -6287,7 +6419,7 @@
         <v>181</v>
       </c>
       <c r="E202" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G202" t="s">
         <v>8</v>
@@ -6313,13 +6445,13 @@
         <v>182</v>
       </c>
       <c r="E203" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F203" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G203" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H203">
         <v>600</v>
@@ -6342,10 +6474,10 @@
         <v>183</v>
       </c>
       <c r="E204" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F204" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H204">
         <v>600</v>
@@ -6368,10 +6500,10 @@
         <v>184</v>
       </c>
       <c r="E205" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F205" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H205">
         <v>600</v>
@@ -6394,7 +6526,7 @@
         <v>185</v>
       </c>
       <c r="G206" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H206">
         <v>600</v>
@@ -6414,13 +6546,13 @@
         <v>186</v>
       </c>
       <c r="E207" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F207" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G207" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H207">
         <v>600</v>
@@ -6443,13 +6575,13 @@
         <v>98</v>
       </c>
       <c r="E208" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F208" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G208" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H208">
         <v>600</v>
@@ -6472,13 +6604,13 @@
         <v>70</v>
       </c>
       <c r="E209" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F209" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G209" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H209">
         <v>600</v>
@@ -6501,7 +6633,7 @@
         <v>187</v>
       </c>
       <c r="E210" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G210" t="s">
         <v>8</v>
@@ -6527,13 +6659,13 @@
         <v>188</v>
       </c>
       <c r="E211" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F211" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="G211" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H211">
         <v>600</v>
@@ -6556,10 +6688,10 @@
         <v>189</v>
       </c>
       <c r="E212" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F212" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H212">
         <v>600</v>
@@ -6582,10 +6714,10 @@
         <v>190</v>
       </c>
       <c r="E213" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F213" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H213">
         <v>600</v>
@@ -6608,7 +6740,7 @@
         <v>191</v>
       </c>
       <c r="G214" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H214">
         <v>600</v>
@@ -6628,13 +6760,13 @@
         <v>192</v>
       </c>
       <c r="E215" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F215" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G215" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H215">
         <v>600</v>
@@ -6657,13 +6789,13 @@
         <v>193</v>
       </c>
       <c r="E216" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F216" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G216" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H216">
         <v>600</v>
@@ -6686,13 +6818,13 @@
         <v>19</v>
       </c>
       <c r="E217" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F217" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G217" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H217">
         <v>600</v>
@@ -6715,7 +6847,7 @@
         <v>194</v>
       </c>
       <c r="E218" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G218" t="s">
         <v>8</v>
@@ -6741,13 +6873,13 @@
         <v>145</v>
       </c>
       <c r="E219" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F219" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="G219" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H219">
         <v>600</v>
@@ -6770,10 +6902,10 @@
         <v>189</v>
       </c>
       <c r="E220" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F220" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H220">
         <v>600</v>
@@ -6796,10 +6928,10 @@
         <v>27</v>
       </c>
       <c r="E221" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F221" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H221">
         <v>600</v>
@@ -6822,7 +6954,7 @@
         <v>195</v>
       </c>
       <c r="G222" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H222">
         <v>600</v>
@@ -6842,13 +6974,13 @@
         <v>17</v>
       </c>
       <c r="E223" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F223" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G223" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H223">
         <v>600</v>
@@ -6871,13 +7003,13 @@
         <v>196</v>
       </c>
       <c r="E224" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F224" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G224" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H224">
         <v>600</v>
@@ -6900,13 +7032,13 @@
         <v>81</v>
       </c>
       <c r="E225" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F225" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G225" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H225">
         <v>600</v>
@@ -6929,7 +7061,7 @@
         <v>197</v>
       </c>
       <c r="E226" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G226" t="s">
         <v>8</v>
@@ -6955,13 +7087,13 @@
         <v>198</v>
       </c>
       <c r="E227" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F227" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="G227" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H227">
         <v>600</v>
@@ -6984,10 +7116,10 @@
         <v>48</v>
       </c>
       <c r="E228" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F228" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H228">
         <v>600</v>
@@ -7010,10 +7142,10 @@
         <v>199</v>
       </c>
       <c r="E229" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F229" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H229">
         <v>600</v>
@@ -7036,7 +7168,7 @@
         <v>200</v>
       </c>
       <c r="G230" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H230">
         <v>600</v>
@@ -7056,13 +7188,13 @@
         <v>201</v>
       </c>
       <c r="E231" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F231" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G231" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H231">
         <v>600</v>
@@ -7085,13 +7217,13 @@
         <v>50</v>
       </c>
       <c r="E232" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F232" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G232" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H232">
         <v>600</v>
@@ -7114,13 +7246,13 @@
         <v>70</v>
       </c>
       <c r="E233" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F233" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G233" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H233">
         <v>600</v>
@@ -7143,7 +7275,7 @@
         <v>202</v>
       </c>
       <c r="E234" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G234" t="s">
         <v>8</v>
@@ -7169,13 +7301,13 @@
         <v>111</v>
       </c>
       <c r="E235" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F235" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="G235" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H235">
         <v>600</v>
@@ -7198,10 +7330,10 @@
         <v>203</v>
       </c>
       <c r="E236" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F236" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H236">
         <v>600</v>
@@ -7224,10 +7356,10 @@
         <v>204</v>
       </c>
       <c r="E237" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F237" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H237">
         <v>600</v>
@@ -7250,7 +7382,7 @@
         <v>205</v>
       </c>
       <c r="G238" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H238">
         <v>600</v>
@@ -7270,13 +7402,13 @@
         <v>206</v>
       </c>
       <c r="E239" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F239" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G239" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H239">
         <v>600</v>
@@ -7299,13 +7431,13 @@
         <v>98</v>
       </c>
       <c r="E240" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F240" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G240" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H240">
         <v>600</v>
@@ -7328,13 +7460,13 @@
         <v>19</v>
       </c>
       <c r="E241" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F241" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G241" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H241">
         <v>600</v>
@@ -7357,7 +7489,7 @@
         <v>207</v>
       </c>
       <c r="E242" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G242" t="s">
         <v>8</v>
@@ -7383,13 +7515,13 @@
         <v>208</v>
       </c>
       <c r="E243" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F243" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="G243" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H243">
         <v>600</v>
@@ -7412,10 +7544,10 @@
         <v>209</v>
       </c>
       <c r="E244" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F244" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H244">
         <v>600</v>
@@ -7438,10 +7570,10 @@
         <v>210</v>
       </c>
       <c r="E245" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F245" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H245">
         <v>600</v>
@@ -7464,7 +7596,7 @@
         <v>211</v>
       </c>
       <c r="G246" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H246">
         <v>600</v>
@@ -7484,13 +7616,13 @@
         <v>212</v>
       </c>
       <c r="E247" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F247" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G247" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H247">
         <v>600</v>
@@ -7513,13 +7645,13 @@
         <v>213</v>
       </c>
       <c r="E248" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F248" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G248" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H248">
         <v>600</v>
@@ -7542,13 +7674,13 @@
         <v>19</v>
       </c>
       <c r="E249" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F249" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G249" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H249">
         <v>600</v>
@@ -7571,7 +7703,7 @@
         <v>187</v>
       </c>
       <c r="E250" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G250" t="s">
         <v>8</v>
@@ -7597,13 +7729,13 @@
         <v>214</v>
       </c>
       <c r="E251" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F251" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="G251" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H251">
         <v>600</v>
@@ -7626,10 +7758,10 @@
         <v>122</v>
       </c>
       <c r="E252" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F252" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H252">
         <v>600</v>
@@ -7652,10 +7784,10 @@
         <v>215</v>
       </c>
       <c r="E253" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F253" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H253">
         <v>600</v>
@@ -7678,7 +7810,7 @@
         <v>216</v>
       </c>
       <c r="G254" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H254">
         <v>600</v>
@@ -7698,13 +7830,13 @@
         <v>217</v>
       </c>
       <c r="E255" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F255" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G255" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H255">
         <v>600</v>
@@ -7727,13 +7859,13 @@
         <v>218</v>
       </c>
       <c r="E256" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F256" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G256" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H256">
         <v>600</v>
@@ -7756,13 +7888,13 @@
         <v>70</v>
       </c>
       <c r="E257" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F257" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G257" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H257">
         <v>600</v>
@@ -7785,7 +7917,7 @@
         <v>219</v>
       </c>
       <c r="E258" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G258" t="s">
         <v>8</v>
@@ -7811,13 +7943,13 @@
         <v>136</v>
       </c>
       <c r="E259" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F259" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="G259" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H259">
         <v>600</v>
@@ -7840,10 +7972,10 @@
         <v>220</v>
       </c>
       <c r="E260" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F260" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H260">
         <v>600</v>
@@ -7866,10 +7998,10 @@
         <v>221</v>
       </c>
       <c r="E261" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F261" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H261">
         <v>600</v>
@@ -7892,7 +8024,7 @@
         <v>222</v>
       </c>
       <c r="G262" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H262">
         <v>600</v>
@@ -7912,13 +8044,13 @@
         <v>223</v>
       </c>
       <c r="E263" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F263" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G263" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H263">
         <v>600</v>
@@ -7941,13 +8073,13 @@
         <v>98</v>
       </c>
       <c r="E264" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F264" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G264" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H264">
         <v>600</v>
@@ -7970,13 +8102,13 @@
         <v>70</v>
       </c>
       <c r="E265" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F265" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G265" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H265">
         <v>600</v>
@@ -7999,7 +8131,7 @@
         <v>224</v>
       </c>
       <c r="E266" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G266" t="s">
         <v>8</v>
@@ -8025,13 +8157,13 @@
         <v>225</v>
       </c>
       <c r="E267" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F267" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="G267" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H267">
         <v>600</v>
@@ -8054,10 +8186,10 @@
         <v>226</v>
       </c>
       <c r="E268" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F268" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H268">
         <v>600</v>
@@ -8080,10 +8212,10 @@
         <v>102</v>
       </c>
       <c r="E269" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F269" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H269">
         <v>600</v>
@@ -8106,7 +8238,7 @@
         <v>227</v>
       </c>
       <c r="G270" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H270">
         <v>600</v>
@@ -8126,13 +8258,13 @@
         <v>134</v>
       </c>
       <c r="E271" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F271" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G271" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H271">
         <v>600</v>
@@ -8155,13 +8287,13 @@
         <v>98</v>
       </c>
       <c r="E272" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F272" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G272" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H272">
         <v>600</v>
@@ -8181,16 +8313,16 @@
         <v>45155.41180555556</v>
       </c>
       <c r="D273" t="s">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="E273" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F273" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G273" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H273">
         <v>600</v>
@@ -8210,10 +8342,10 @@
         <v>45155.41180555556</v>
       </c>
       <c r="D274" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E274" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G274" t="s">
         <v>8</v>
@@ -8236,16 +8368,16 @@
         <v>45155.41180555556</v>
       </c>
       <c r="D275" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E275" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F275" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="G275" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H275">
         <v>600</v>
@@ -8265,13 +8397,13 @@
         <v>45155.41180555556</v>
       </c>
       <c r="D276" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E276" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F276" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H276">
         <v>600</v>
@@ -8291,13 +8423,13 @@
         <v>45155.41180555556</v>
       </c>
       <c r="D277" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E277" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F277" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H277">
         <v>600</v>
@@ -8317,10 +8449,10 @@
         <v>45197.00048611111</v>
       </c>
       <c r="D278" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G278" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H278">
         <v>600</v>
@@ -8337,16 +8469,16 @@
         <v>45197.30902777778</v>
       </c>
       <c r="D279" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E279" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F279" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G279" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H279">
         <v>600</v>
@@ -8366,16 +8498,16 @@
         <v>45197.30902777778</v>
       </c>
       <c r="D280" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E280" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F280" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G280" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H280">
         <v>600</v>
@@ -8395,16 +8527,16 @@
         <v>45197.30902777778</v>
       </c>
       <c r="D281" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E281" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F281" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G281" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H281">
         <v>600</v>
@@ -8424,10 +8556,10 @@
         <v>45197.30902777778</v>
       </c>
       <c r="D282" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E282" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G282" t="s">
         <v>8</v>
@@ -8450,16 +8582,16 @@
         <v>45197.30902777778</v>
       </c>
       <c r="D283" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E283" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F283" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="G283" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H283">
         <v>600</v>
@@ -8479,13 +8611,13 @@
         <v>45197.30902777778</v>
       </c>
       <c r="D284" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E284" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F284" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H284">
         <v>600</v>
@@ -8508,10 +8640,10 @@
         <v>27</v>
       </c>
       <c r="E285" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F285" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H285">
         <v>600</v>
@@ -8531,10 +8663,10 @@
         <v>45210.00048611111</v>
       </c>
       <c r="D286" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G286" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H286">
         <v>600</v>
@@ -8554,13 +8686,13 @@
         <v>153</v>
       </c>
       <c r="E287" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F287" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G287" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H287">
         <v>600</v>
@@ -8583,13 +8715,13 @@
         <v>60</v>
       </c>
       <c r="E288" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F288" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G288" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H288">
         <v>600</v>
@@ -8612,13 +8744,13 @@
         <v>70</v>
       </c>
       <c r="E289" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F289" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G289" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H289">
         <v>600</v>
@@ -8638,10 +8770,10 @@
         <v>45210.44583333333</v>
       </c>
       <c r="D290" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E290" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G290" t="s">
         <v>8</v>
@@ -8664,16 +8796,16 @@
         <v>45210.44583333333</v>
       </c>
       <c r="D291" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E291" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F291" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="G291" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H291">
         <v>600</v>
@@ -8693,13 +8825,13 @@
         <v>45210.44583333333</v>
       </c>
       <c r="D292" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E292" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F292" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H292">
         <v>600</v>
@@ -8719,13 +8851,13 @@
         <v>45210.44583333333</v>
       </c>
       <c r="D293" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E293" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F293" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H293">
         <v>600</v>
@@ -8745,10 +8877,10 @@
         <v>45253.00048611111</v>
       </c>
       <c r="D294" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G294" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H294">
         <v>600</v>
@@ -8765,16 +8897,16 @@
         <v>45253.35416666666</v>
       </c>
       <c r="D295" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E295" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F295" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G295" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H295">
         <v>600</v>
@@ -8794,16 +8926,16 @@
         <v>45253.35416666666</v>
       </c>
       <c r="D296" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E296" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F296" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G296" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H296">
         <v>600</v>
@@ -8823,16 +8955,16 @@
         <v>45253.35416666666</v>
       </c>
       <c r="D297" t="s">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="E297" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F297" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G297" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H297">
         <v>600</v>
@@ -8852,10 +8984,10 @@
         <v>45253.35416666666</v>
       </c>
       <c r="D298" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E298" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G298" t="s">
         <v>8</v>
@@ -8881,13 +9013,13 @@
         <v>111</v>
       </c>
       <c r="E299" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F299" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="G299" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H299">
         <v>600</v>
@@ -8910,10 +9042,10 @@
         <v>44</v>
       </c>
       <c r="E300" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F300" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H300">
         <v>600</v>
@@ -8936,10 +9068,10 @@
         <v>184</v>
       </c>
       <c r="E301" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F301" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H301">
         <v>600</v>
@@ -8959,10 +9091,10 @@
         <v>45280.00048611111</v>
       </c>
       <c r="D302" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G302" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H302">
         <v>600</v>
@@ -8979,16 +9111,16 @@
         <v>45280.41180555556</v>
       </c>
       <c r="D303" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E303" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F303" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G303" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="H303">
         <v>600</v>
@@ -9011,13 +9143,13 @@
         <v>196</v>
       </c>
       <c r="E304" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F304" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G304" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="H304">
         <v>600</v>
@@ -9037,16 +9169,16 @@
         <v>45280.41180555556</v>
       </c>
       <c r="D305" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E305" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F305" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G305" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="H305">
         <v>600</v>
@@ -9066,10 +9198,10 @@
         <v>45280.41180555556</v>
       </c>
       <c r="D306" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E306" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G306" t="s">
         <v>8</v>
@@ -9095,13 +9227,13 @@
         <v>104</v>
       </c>
       <c r="E307" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F307" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="G307" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="H307">
         <v>600</v>
@@ -9121,13 +9253,13 @@
         <v>45280.41180555556</v>
       </c>
       <c r="D308" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E308" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F308" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H308">
         <v>600</v>
@@ -9147,19 +9279,1945 @@
         <v>45280.41180555556</v>
       </c>
       <c r="D309" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E309" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F309" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="H309">
         <v>600</v>
       </c>
       <c r="I309">
         <v>8.51</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="A310" t="s">
+        <v>9</v>
+      </c>
+      <c r="B310" t="s">
+        <v>16</v>
+      </c>
+      <c r="C310" s="2">
+        <v>45308.00048611111</v>
+      </c>
+      <c r="D310" t="s">
+        <v>255</v>
+      </c>
+      <c r="G310" t="s">
+        <v>313</v>
+      </c>
+      <c r="H310">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="A311" t="s">
+        <v>9</v>
+      </c>
+      <c r="B311" t="s">
+        <v>10</v>
+      </c>
+      <c r="C311" s="2">
+        <v>45308.3875</v>
+      </c>
+      <c r="D311" t="s">
+        <v>246</v>
+      </c>
+      <c r="E311" t="s">
+        <v>296</v>
+      </c>
+      <c r="F311" t="s">
+        <v>306</v>
+      </c>
+      <c r="G311" t="s">
+        <v>309</v>
+      </c>
+      <c r="H311">
+        <v>600</v>
+      </c>
+      <c r="I311">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
+      <c r="A312" t="s">
+        <v>9</v>
+      </c>
+      <c r="B312" t="s">
+        <v>11</v>
+      </c>
+      <c r="C312" s="2">
+        <v>45308.3875</v>
+      </c>
+      <c r="D312" t="s">
+        <v>23</v>
+      </c>
+      <c r="E312" t="s">
+        <v>296</v>
+      </c>
+      <c r="F312" t="s">
+        <v>298</v>
+      </c>
+      <c r="G312" t="s">
+        <v>310</v>
+      </c>
+      <c r="H312">
+        <v>600</v>
+      </c>
+      <c r="I312">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
+      <c r="A313" t="s">
+        <v>9</v>
+      </c>
+      <c r="B313" t="s">
+        <v>12</v>
+      </c>
+      <c r="C313" s="2">
+        <v>45308.3875</v>
+      </c>
+      <c r="D313" t="s">
+        <v>256</v>
+      </c>
+      <c r="E313" t="s">
+        <v>296</v>
+      </c>
+      <c r="F313" t="s">
+        <v>302</v>
+      </c>
+      <c r="G313" t="s">
+        <v>311</v>
+      </c>
+      <c r="H313">
+        <v>600</v>
+      </c>
+      <c r="I313">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
+      <c r="A314" t="s">
+        <v>9</v>
+      </c>
+      <c r="B314" t="s">
+        <v>8</v>
+      </c>
+      <c r="C314" s="2">
+        <v>45308.3875</v>
+      </c>
+      <c r="D314" t="s">
+        <v>257</v>
+      </c>
+      <c r="E314" t="s">
+        <v>296</v>
+      </c>
+      <c r="G314" t="s">
+        <v>8</v>
+      </c>
+      <c r="H314">
+        <v>600</v>
+      </c>
+      <c r="I314">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="A315" t="s">
+        <v>9</v>
+      </c>
+      <c r="B315" t="s">
+        <v>15</v>
+      </c>
+      <c r="C315" s="2">
+        <v>45308.3875</v>
+      </c>
+      <c r="D315" t="s">
+        <v>111</v>
+      </c>
+      <c r="E315" t="s">
+        <v>296</v>
+      </c>
+      <c r="F315" t="s">
+        <v>307</v>
+      </c>
+      <c r="G315" t="s">
+        <v>312</v>
+      </c>
+      <c r="H315">
+        <v>600</v>
+      </c>
+      <c r="I315">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
+      <c r="A316" t="s">
+        <v>9</v>
+      </c>
+      <c r="B316" t="s">
+        <v>13</v>
+      </c>
+      <c r="C316" s="2">
+        <v>45308.3875</v>
+      </c>
+      <c r="D316" t="s">
+        <v>258</v>
+      </c>
+      <c r="E316" t="s">
+        <v>296</v>
+      </c>
+      <c r="F316" t="s">
+        <v>304</v>
+      </c>
+      <c r="H316">
+        <v>600</v>
+      </c>
+      <c r="I316">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
+      <c r="A317" t="s">
+        <v>9</v>
+      </c>
+      <c r="B317" t="s">
+        <v>14</v>
+      </c>
+      <c r="C317" s="2">
+        <v>45308.3875</v>
+      </c>
+      <c r="D317" t="s">
+        <v>259</v>
+      </c>
+      <c r="E317" t="s">
+        <v>296</v>
+      </c>
+      <c r="F317" t="s">
+        <v>305</v>
+      </c>
+      <c r="H317">
+        <v>600</v>
+      </c>
+      <c r="I317">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
+      <c r="A318" t="s">
+        <v>9</v>
+      </c>
+      <c r="B318" t="s">
+        <v>16</v>
+      </c>
+      <c r="C318" s="2">
+        <v>45344.00048611111</v>
+      </c>
+      <c r="D318" t="s">
+        <v>260</v>
+      </c>
+      <c r="G318" t="s">
+        <v>313</v>
+      </c>
+      <c r="H318">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
+      <c r="A319" t="s">
+        <v>9</v>
+      </c>
+      <c r="B319" t="s">
+        <v>10</v>
+      </c>
+      <c r="C319" s="2">
+        <v>45344.42013888889</v>
+      </c>
+      <c r="D319" t="s">
+        <v>136</v>
+      </c>
+      <c r="E319" t="s">
+        <v>296</v>
+      </c>
+      <c r="F319" t="s">
+        <v>306</v>
+      </c>
+      <c r="G319" t="s">
+        <v>309</v>
+      </c>
+      <c r="H319">
+        <v>600</v>
+      </c>
+      <c r="I319">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="A320" t="s">
+        <v>9</v>
+      </c>
+      <c r="B320" t="s">
+        <v>11</v>
+      </c>
+      <c r="C320" s="2">
+        <v>45344.42013888889</v>
+      </c>
+      <c r="D320" t="s">
+        <v>261</v>
+      </c>
+      <c r="E320" t="s">
+        <v>296</v>
+      </c>
+      <c r="F320" t="s">
+        <v>298</v>
+      </c>
+      <c r="G320" t="s">
+        <v>310</v>
+      </c>
+      <c r="H320">
+        <v>600</v>
+      </c>
+      <c r="I320">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="A321" t="s">
+        <v>9</v>
+      </c>
+      <c r="B321" t="s">
+        <v>12</v>
+      </c>
+      <c r="C321" s="2">
+        <v>45344.42013888889</v>
+      </c>
+      <c r="D321" t="s">
+        <v>70</v>
+      </c>
+      <c r="E321" t="s">
+        <v>296</v>
+      </c>
+      <c r="F321" t="s">
+        <v>302</v>
+      </c>
+      <c r="G321" t="s">
+        <v>311</v>
+      </c>
+      <c r="H321">
+        <v>600</v>
+      </c>
+      <c r="I321">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
+      <c r="A322" t="s">
+        <v>9</v>
+      </c>
+      <c r="B322" t="s">
+        <v>8</v>
+      </c>
+      <c r="C322" s="2">
+        <v>45344.42013888889</v>
+      </c>
+      <c r="D322" t="s">
+        <v>262</v>
+      </c>
+      <c r="E322" t="s">
+        <v>296</v>
+      </c>
+      <c r="G322" t="s">
+        <v>8</v>
+      </c>
+      <c r="H322">
+        <v>600</v>
+      </c>
+      <c r="I322">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323" t="s">
+        <v>9</v>
+      </c>
+      <c r="B323" t="s">
+        <v>15</v>
+      </c>
+      <c r="C323" s="2">
+        <v>45344.42013888889</v>
+      </c>
+      <c r="D323" t="s">
+        <v>111</v>
+      </c>
+      <c r="E323" t="s">
+        <v>296</v>
+      </c>
+      <c r="F323" t="s">
+        <v>307</v>
+      </c>
+      <c r="G323" t="s">
+        <v>312</v>
+      </c>
+      <c r="H323">
+        <v>600</v>
+      </c>
+      <c r="I323">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
+      <c r="A324" t="s">
+        <v>9</v>
+      </c>
+      <c r="B324" t="s">
+        <v>13</v>
+      </c>
+      <c r="C324" s="2">
+        <v>45344.42013888889</v>
+      </c>
+      <c r="D324" t="s">
+        <v>220</v>
+      </c>
+      <c r="E324" t="s">
+        <v>296</v>
+      </c>
+      <c r="F324" t="s">
+        <v>304</v>
+      </c>
+      <c r="H324">
+        <v>600</v>
+      </c>
+      <c r="I324">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
+      <c r="A325" t="s">
+        <v>9</v>
+      </c>
+      <c r="B325" t="s">
+        <v>14</v>
+      </c>
+      <c r="C325" s="2">
+        <v>45344.42013888889</v>
+      </c>
+      <c r="D325" t="s">
+        <v>263</v>
+      </c>
+      <c r="E325" t="s">
+        <v>296</v>
+      </c>
+      <c r="F325" t="s">
+        <v>305</v>
+      </c>
+      <c r="H325">
+        <v>600</v>
+      </c>
+      <c r="I325">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="A326" t="s">
+        <v>9</v>
+      </c>
+      <c r="B326" t="s">
+        <v>16</v>
+      </c>
+      <c r="C326" s="2">
+        <v>45363.00048611111</v>
+      </c>
+      <c r="D326" t="s">
+        <v>264</v>
+      </c>
+      <c r="G326" t="s">
+        <v>313</v>
+      </c>
+      <c r="H326">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="A327" t="s">
+        <v>9</v>
+      </c>
+      <c r="B327" t="s">
+        <v>10</v>
+      </c>
+      <c r="C327" s="2">
+        <v>45363.41944444444</v>
+      </c>
+      <c r="D327" t="s">
+        <v>265</v>
+      </c>
+      <c r="E327" t="s">
+        <v>296</v>
+      </c>
+      <c r="F327" t="s">
+        <v>306</v>
+      </c>
+      <c r="G327" t="s">
+        <v>309</v>
+      </c>
+      <c r="H327">
+        <v>600</v>
+      </c>
+      <c r="I327">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="A328" t="s">
+        <v>9</v>
+      </c>
+      <c r="B328" t="s">
+        <v>11</v>
+      </c>
+      <c r="C328" s="2">
+        <v>45363.41944444444</v>
+      </c>
+      <c r="D328" t="s">
+        <v>247</v>
+      </c>
+      <c r="E328" t="s">
+        <v>296</v>
+      </c>
+      <c r="F328" t="s">
+        <v>298</v>
+      </c>
+      <c r="G328" t="s">
+        <v>310</v>
+      </c>
+      <c r="H328">
+        <v>600</v>
+      </c>
+      <c r="I328">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329" t="s">
+        <v>9</v>
+      </c>
+      <c r="B329" t="s">
+        <v>12</v>
+      </c>
+      <c r="C329" s="2">
+        <v>45363.41944444444</v>
+      </c>
+      <c r="D329" t="s">
+        <v>248</v>
+      </c>
+      <c r="E329" t="s">
+        <v>296</v>
+      </c>
+      <c r="F329" t="s">
+        <v>302</v>
+      </c>
+      <c r="G329" t="s">
+        <v>311</v>
+      </c>
+      <c r="H329">
+        <v>600</v>
+      </c>
+      <c r="I329">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" t="s">
+        <v>9</v>
+      </c>
+      <c r="B330" t="s">
+        <v>8</v>
+      </c>
+      <c r="C330" s="2">
+        <v>45363.41944444444</v>
+      </c>
+      <c r="D330" t="s">
+        <v>266</v>
+      </c>
+      <c r="E330" t="s">
+        <v>296</v>
+      </c>
+      <c r="G330" t="s">
+        <v>8</v>
+      </c>
+      <c r="H330">
+        <v>600</v>
+      </c>
+      <c r="I330">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331" t="s">
+        <v>9</v>
+      </c>
+      <c r="B331" t="s">
+        <v>15</v>
+      </c>
+      <c r="C331" s="2">
+        <v>45363.41944444444</v>
+      </c>
+      <c r="D331" t="s">
+        <v>267</v>
+      </c>
+      <c r="E331" t="s">
+        <v>296</v>
+      </c>
+      <c r="F331" t="s">
+        <v>307</v>
+      </c>
+      <c r="G331" t="s">
+        <v>312</v>
+      </c>
+      <c r="H331">
+        <v>600</v>
+      </c>
+      <c r="I331">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
+      <c r="A332" t="s">
+        <v>9</v>
+      </c>
+      <c r="B332" t="s">
+        <v>13</v>
+      </c>
+      <c r="C332" s="2">
+        <v>45363.41944444444</v>
+      </c>
+      <c r="D332" t="s">
+        <v>268</v>
+      </c>
+      <c r="E332" t="s">
+        <v>296</v>
+      </c>
+      <c r="F332" t="s">
+        <v>304</v>
+      </c>
+      <c r="H332">
+        <v>600</v>
+      </c>
+      <c r="I332">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" t="s">
+        <v>9</v>
+      </c>
+      <c r="B333" t="s">
+        <v>14</v>
+      </c>
+      <c r="C333" s="2">
+        <v>45363.41944444444</v>
+      </c>
+      <c r="D333" t="s">
+        <v>269</v>
+      </c>
+      <c r="E333" t="s">
+        <v>296</v>
+      </c>
+      <c r="F333" t="s">
+        <v>305</v>
+      </c>
+      <c r="H333">
+        <v>600</v>
+      </c>
+      <c r="I333">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" t="s">
+        <v>9</v>
+      </c>
+      <c r="B334" t="s">
+        <v>16</v>
+      </c>
+      <c r="C334" s="2">
+        <v>45398.00048611111</v>
+      </c>
+      <c r="D334" t="s">
+        <v>270</v>
+      </c>
+      <c r="G334" t="s">
+        <v>313</v>
+      </c>
+      <c r="H334">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" t="s">
+        <v>9</v>
+      </c>
+      <c r="B335" t="s">
+        <v>10</v>
+      </c>
+      <c r="C335" s="2">
+        <v>45398.40625</v>
+      </c>
+      <c r="D335" t="s">
+        <v>246</v>
+      </c>
+      <c r="E335" t="s">
+        <v>296</v>
+      </c>
+      <c r="F335" t="s">
+        <v>306</v>
+      </c>
+      <c r="G335" t="s">
+        <v>309</v>
+      </c>
+      <c r="H335">
+        <v>600</v>
+      </c>
+      <c r="I335">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" t="s">
+        <v>9</v>
+      </c>
+      <c r="B336" t="s">
+        <v>11</v>
+      </c>
+      <c r="C336" s="2">
+        <v>45398.40625</v>
+      </c>
+      <c r="D336" t="s">
+        <v>271</v>
+      </c>
+      <c r="E336" t="s">
+        <v>296</v>
+      </c>
+      <c r="F336" t="s">
+        <v>298</v>
+      </c>
+      <c r="G336" t="s">
+        <v>310</v>
+      </c>
+      <c r="H336">
+        <v>600</v>
+      </c>
+      <c r="I336">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" t="s">
+        <v>9</v>
+      </c>
+      <c r="B337" t="s">
+        <v>12</v>
+      </c>
+      <c r="C337" s="2">
+        <v>45398.40625</v>
+      </c>
+      <c r="D337" t="s">
+        <v>70</v>
+      </c>
+      <c r="E337" t="s">
+        <v>296</v>
+      </c>
+      <c r="F337" t="s">
+        <v>302</v>
+      </c>
+      <c r="G337" t="s">
+        <v>311</v>
+      </c>
+      <c r="H337">
+        <v>600</v>
+      </c>
+      <c r="I337">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" t="s">
+        <v>9</v>
+      </c>
+      <c r="B338" t="s">
+        <v>8</v>
+      </c>
+      <c r="C338" s="2">
+        <v>45398.40625</v>
+      </c>
+      <c r="D338" t="s">
+        <v>272</v>
+      </c>
+      <c r="E338" t="s">
+        <v>296</v>
+      </c>
+      <c r="G338" t="s">
+        <v>8</v>
+      </c>
+      <c r="H338">
+        <v>600</v>
+      </c>
+      <c r="I338">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" t="s">
+        <v>9</v>
+      </c>
+      <c r="B339" t="s">
+        <v>15</v>
+      </c>
+      <c r="C339" s="2">
+        <v>45398.40625</v>
+      </c>
+      <c r="D339" t="s">
+        <v>111</v>
+      </c>
+      <c r="E339" t="s">
+        <v>296</v>
+      </c>
+      <c r="F339" t="s">
+        <v>307</v>
+      </c>
+      <c r="G339" t="s">
+        <v>312</v>
+      </c>
+      <c r="H339">
+        <v>600</v>
+      </c>
+      <c r="I339">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" t="s">
+        <v>9</v>
+      </c>
+      <c r="B340" t="s">
+        <v>13</v>
+      </c>
+      <c r="C340" s="2">
+        <v>45398.40625</v>
+      </c>
+      <c r="D340" t="s">
+        <v>254</v>
+      </c>
+      <c r="E340" t="s">
+        <v>296</v>
+      </c>
+      <c r="F340" t="s">
+        <v>304</v>
+      </c>
+      <c r="H340">
+        <v>600</v>
+      </c>
+      <c r="I340">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341" t="s">
+        <v>9</v>
+      </c>
+      <c r="B341" t="s">
+        <v>14</v>
+      </c>
+      <c r="C341" s="2">
+        <v>45398.40625</v>
+      </c>
+      <c r="D341" t="s">
+        <v>273</v>
+      </c>
+      <c r="E341" t="s">
+        <v>296</v>
+      </c>
+      <c r="F341" t="s">
+        <v>305</v>
+      </c>
+      <c r="H341">
+        <v>600</v>
+      </c>
+      <c r="I341">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" t="s">
+        <v>16</v>
+      </c>
+      <c r="C342" s="2">
+        <v>45511.00048611111</v>
+      </c>
+      <c r="D342" t="s">
+        <v>274</v>
+      </c>
+      <c r="G342" t="s">
+        <v>313</v>
+      </c>
+      <c r="H342">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" t="s">
+        <v>9</v>
+      </c>
+      <c r="B343" t="s">
+        <v>10</v>
+      </c>
+      <c r="C343" s="2">
+        <v>45511.37847222222</v>
+      </c>
+      <c r="D343" t="s">
+        <v>275</v>
+      </c>
+      <c r="E343" t="s">
+        <v>296</v>
+      </c>
+      <c r="F343" t="s">
+        <v>308</v>
+      </c>
+      <c r="G343" t="s">
+        <v>309</v>
+      </c>
+      <c r="H343">
+        <v>600</v>
+      </c>
+      <c r="I343">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" t="s">
+        <v>9</v>
+      </c>
+      <c r="B344" t="s">
+        <v>11</v>
+      </c>
+      <c r="C344" s="2">
+        <v>45511.37847222222</v>
+      </c>
+      <c r="D344" t="s">
+        <v>276</v>
+      </c>
+      <c r="E344" t="s">
+        <v>296</v>
+      </c>
+      <c r="F344" t="s">
+        <v>298</v>
+      </c>
+      <c r="G344" t="s">
+        <v>310</v>
+      </c>
+      <c r="H344">
+        <v>600</v>
+      </c>
+      <c r="I344">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" t="s">
+        <v>9</v>
+      </c>
+      <c r="B345" t="s">
+        <v>12</v>
+      </c>
+      <c r="C345" s="2">
+        <v>45511.37847222222</v>
+      </c>
+      <c r="D345" t="s">
+        <v>24</v>
+      </c>
+      <c r="E345" t="s">
+        <v>296</v>
+      </c>
+      <c r="F345" t="s">
+        <v>302</v>
+      </c>
+      <c r="G345" t="s">
+        <v>311</v>
+      </c>
+      <c r="H345">
+        <v>600</v>
+      </c>
+      <c r="I345">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" t="s">
+        <v>9</v>
+      </c>
+      <c r="B346" t="s">
+        <v>8</v>
+      </c>
+      <c r="C346" s="2">
+        <v>45511.37847222222</v>
+      </c>
+      <c r="D346" t="s">
+        <v>277</v>
+      </c>
+      <c r="E346" t="s">
+        <v>296</v>
+      </c>
+      <c r="G346" t="s">
+        <v>8</v>
+      </c>
+      <c r="H346">
+        <v>600</v>
+      </c>
+      <c r="I346">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" t="s">
+        <v>9</v>
+      </c>
+      <c r="B347" t="s">
+        <v>15</v>
+      </c>
+      <c r="C347" s="2">
+        <v>45511.37847222222</v>
+      </c>
+      <c r="D347" t="s">
+        <v>111</v>
+      </c>
+      <c r="E347" t="s">
+        <v>296</v>
+      </c>
+      <c r="F347" t="s">
+        <v>307</v>
+      </c>
+      <c r="G347" t="s">
+        <v>312</v>
+      </c>
+      <c r="H347">
+        <v>600</v>
+      </c>
+      <c r="I347">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" t="s">
+        <v>9</v>
+      </c>
+      <c r="B348" t="s">
+        <v>13</v>
+      </c>
+      <c r="C348" s="2">
+        <v>45511.37847222222</v>
+      </c>
+      <c r="D348" t="s">
+        <v>278</v>
+      </c>
+      <c r="E348" t="s">
+        <v>296</v>
+      </c>
+      <c r="F348" t="s">
+        <v>304</v>
+      </c>
+      <c r="H348">
+        <v>600</v>
+      </c>
+      <c r="I348">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" t="s">
+        <v>9</v>
+      </c>
+      <c r="B349" t="s">
+        <v>14</v>
+      </c>
+      <c r="C349" s="2">
+        <v>45511.37847222222</v>
+      </c>
+      <c r="D349" t="s">
+        <v>279</v>
+      </c>
+      <c r="E349" t="s">
+        <v>296</v>
+      </c>
+      <c r="F349" t="s">
+        <v>305</v>
+      </c>
+      <c r="H349">
+        <v>600</v>
+      </c>
+      <c r="I349">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="s">
+        <v>16</v>
+      </c>
+      <c r="C350" s="2">
+        <v>45558.00048611111</v>
+      </c>
+      <c r="D350" t="s">
+        <v>280</v>
+      </c>
+      <c r="G350" t="s">
+        <v>313</v>
+      </c>
+      <c r="H350">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" t="s">
+        <v>9</v>
+      </c>
+      <c r="B351" t="s">
+        <v>10</v>
+      </c>
+      <c r="C351" s="2">
+        <v>45558.39513888889</v>
+      </c>
+      <c r="D351" t="s">
+        <v>275</v>
+      </c>
+      <c r="E351" t="s">
+        <v>296</v>
+      </c>
+      <c r="F351" t="s">
+        <v>306</v>
+      </c>
+      <c r="G351" t="s">
+        <v>309</v>
+      </c>
+      <c r="H351">
+        <v>600</v>
+      </c>
+      <c r="I351">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" t="s">
+        <v>9</v>
+      </c>
+      <c r="B352" t="s">
+        <v>11</v>
+      </c>
+      <c r="C352" s="2">
+        <v>45558.39513888889</v>
+      </c>
+      <c r="D352" t="s">
+        <v>281</v>
+      </c>
+      <c r="E352" t="s">
+        <v>296</v>
+      </c>
+      <c r="F352" t="s">
+        <v>298</v>
+      </c>
+      <c r="G352" t="s">
+        <v>310</v>
+      </c>
+      <c r="H352">
+        <v>600</v>
+      </c>
+      <c r="I352">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" t="s">
+        <v>9</v>
+      </c>
+      <c r="B353" t="s">
+        <v>12</v>
+      </c>
+      <c r="C353" s="2">
+        <v>45558.39513888889</v>
+      </c>
+      <c r="D353" t="s">
+        <v>248</v>
+      </c>
+      <c r="E353" t="s">
+        <v>296</v>
+      </c>
+      <c r="F353" t="s">
+        <v>302</v>
+      </c>
+      <c r="G353" t="s">
+        <v>311</v>
+      </c>
+      <c r="H353">
+        <v>600</v>
+      </c>
+      <c r="I353">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" t="s">
+        <v>9</v>
+      </c>
+      <c r="B354" t="s">
+        <v>8</v>
+      </c>
+      <c r="C354" s="2">
+        <v>45558.39513888889</v>
+      </c>
+      <c r="D354" t="s">
+        <v>121</v>
+      </c>
+      <c r="E354" t="s">
+        <v>296</v>
+      </c>
+      <c r="G354" t="s">
+        <v>8</v>
+      </c>
+      <c r="H354">
+        <v>600</v>
+      </c>
+      <c r="I354">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" t="s">
+        <v>9</v>
+      </c>
+      <c r="B355" t="s">
+        <v>15</v>
+      </c>
+      <c r="C355" s="2">
+        <v>45558.39513888889</v>
+      </c>
+      <c r="D355" t="s">
+        <v>111</v>
+      </c>
+      <c r="E355" t="s">
+        <v>296</v>
+      </c>
+      <c r="F355" t="s">
+        <v>307</v>
+      </c>
+      <c r="G355" t="s">
+        <v>312</v>
+      </c>
+      <c r="H355">
+        <v>600</v>
+      </c>
+      <c r="I355">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" t="s">
+        <v>9</v>
+      </c>
+      <c r="B356" t="s">
+        <v>13</v>
+      </c>
+      <c r="C356" s="2">
+        <v>45558.39513888889</v>
+      </c>
+      <c r="D356" t="s">
+        <v>239</v>
+      </c>
+      <c r="E356" t="s">
+        <v>296</v>
+      </c>
+      <c r="F356" t="s">
+        <v>304</v>
+      </c>
+      <c r="H356">
+        <v>600</v>
+      </c>
+      <c r="I356">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" t="s">
+        <v>9</v>
+      </c>
+      <c r="B357" t="s">
+        <v>14</v>
+      </c>
+      <c r="C357" s="2">
+        <v>45558.39513888889</v>
+      </c>
+      <c r="D357" t="s">
+        <v>45</v>
+      </c>
+      <c r="E357" t="s">
+        <v>296</v>
+      </c>
+      <c r="F357" t="s">
+        <v>305</v>
+      </c>
+      <c r="H357">
+        <v>600</v>
+      </c>
+      <c r="I357">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" t="s">
+        <v>9</v>
+      </c>
+      <c r="B358" t="s">
+        <v>16</v>
+      </c>
+      <c r="C358" s="2">
+        <v>45587.00048611111</v>
+      </c>
+      <c r="D358" t="s">
+        <v>282</v>
+      </c>
+      <c r="G358" t="s">
+        <v>313</v>
+      </c>
+      <c r="H358">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" t="s">
+        <v>9</v>
+      </c>
+      <c r="B359" t="s">
+        <v>10</v>
+      </c>
+      <c r="C359" s="2">
+        <v>45587.39513888889</v>
+      </c>
+      <c r="D359" t="s">
+        <v>283</v>
+      </c>
+      <c r="E359" t="s">
+        <v>296</v>
+      </c>
+      <c r="F359" t="s">
+        <v>306</v>
+      </c>
+      <c r="G359" t="s">
+        <v>309</v>
+      </c>
+      <c r="H359">
+        <v>600</v>
+      </c>
+      <c r="I359">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360" t="s">
+        <v>9</v>
+      </c>
+      <c r="B360" t="s">
+        <v>11</v>
+      </c>
+      <c r="C360" s="2">
+        <v>45587.39513888889</v>
+      </c>
+      <c r="D360" t="s">
+        <v>284</v>
+      </c>
+      <c r="E360" t="s">
+        <v>296</v>
+      </c>
+      <c r="F360" t="s">
+        <v>298</v>
+      </c>
+      <c r="G360" t="s">
+        <v>310</v>
+      </c>
+      <c r="H360">
+        <v>600</v>
+      </c>
+      <c r="I360">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="A361" t="s">
+        <v>9</v>
+      </c>
+      <c r="B361" t="s">
+        <v>12</v>
+      </c>
+      <c r="C361" s="2">
+        <v>45587.39513888889</v>
+      </c>
+      <c r="D361" t="s">
+        <v>19</v>
+      </c>
+      <c r="E361" t="s">
+        <v>296</v>
+      </c>
+      <c r="F361" t="s">
+        <v>302</v>
+      </c>
+      <c r="G361" t="s">
+        <v>311</v>
+      </c>
+      <c r="H361">
+        <v>600</v>
+      </c>
+      <c r="I361">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="A362" t="s">
+        <v>9</v>
+      </c>
+      <c r="B362" t="s">
+        <v>8</v>
+      </c>
+      <c r="C362" s="2">
+        <v>45587.39513888889</v>
+      </c>
+      <c r="D362" t="s">
+        <v>277</v>
+      </c>
+      <c r="E362" t="s">
+        <v>296</v>
+      </c>
+      <c r="G362" t="s">
+        <v>8</v>
+      </c>
+      <c r="H362">
+        <v>600</v>
+      </c>
+      <c r="I362">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" t="s">
+        <v>9</v>
+      </c>
+      <c r="B363" t="s">
+        <v>15</v>
+      </c>
+      <c r="C363" s="2">
+        <v>45587.39513888889</v>
+      </c>
+      <c r="D363" t="s">
+        <v>111</v>
+      </c>
+      <c r="E363" t="s">
+        <v>296</v>
+      </c>
+      <c r="F363" t="s">
+        <v>307</v>
+      </c>
+      <c r="G363" t="s">
+        <v>312</v>
+      </c>
+      <c r="H363">
+        <v>600</v>
+      </c>
+      <c r="I363">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364" t="s">
+        <v>9</v>
+      </c>
+      <c r="B364" t="s">
+        <v>13</v>
+      </c>
+      <c r="C364" s="2">
+        <v>45587.39513888889</v>
+      </c>
+      <c r="D364" t="s">
+        <v>176</v>
+      </c>
+      <c r="E364" t="s">
+        <v>296</v>
+      </c>
+      <c r="F364" t="s">
+        <v>304</v>
+      </c>
+      <c r="H364">
+        <v>600</v>
+      </c>
+      <c r="I364">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" t="s">
+        <v>9</v>
+      </c>
+      <c r="B365" t="s">
+        <v>14</v>
+      </c>
+      <c r="C365" s="2">
+        <v>45587.39513888889</v>
+      </c>
+      <c r="D365" t="s">
+        <v>285</v>
+      </c>
+      <c r="E365" t="s">
+        <v>296</v>
+      </c>
+      <c r="F365" t="s">
+        <v>305</v>
+      </c>
+      <c r="H365">
+        <v>600</v>
+      </c>
+      <c r="I365">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" t="s">
+        <v>9</v>
+      </c>
+      <c r="B366" t="s">
+        <v>16</v>
+      </c>
+      <c r="C366" s="2">
+        <v>45616.00048611111</v>
+      </c>
+      <c r="D366" t="s">
+        <v>286</v>
+      </c>
+      <c r="G366" t="s">
+        <v>313</v>
+      </c>
+      <c r="H366">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" t="s">
+        <v>9</v>
+      </c>
+      <c r="B367" t="s">
+        <v>10</v>
+      </c>
+      <c r="C367" s="2">
+        <v>45616.39305555556</v>
+      </c>
+      <c r="D367" t="s">
+        <v>111</v>
+      </c>
+      <c r="E367" t="s">
+        <v>296</v>
+      </c>
+      <c r="F367" t="s">
+        <v>306</v>
+      </c>
+      <c r="G367" t="s">
+        <v>309</v>
+      </c>
+      <c r="H367">
+        <v>600</v>
+      </c>
+      <c r="I367">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" t="s">
+        <v>9</v>
+      </c>
+      <c r="B368" t="s">
+        <v>11</v>
+      </c>
+      <c r="C368" s="2">
+        <v>45616.39305555556</v>
+      </c>
+      <c r="D368" t="s">
+        <v>287</v>
+      </c>
+      <c r="E368" t="s">
+        <v>296</v>
+      </c>
+      <c r="F368" t="s">
+        <v>298</v>
+      </c>
+      <c r="G368" t="s">
+        <v>310</v>
+      </c>
+      <c r="H368">
+        <v>600</v>
+      </c>
+      <c r="I368">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" t="s">
+        <v>9</v>
+      </c>
+      <c r="B369" t="s">
+        <v>12</v>
+      </c>
+      <c r="C369" s="2">
+        <v>45616.39305555556</v>
+      </c>
+      <c r="D369" t="s">
+        <v>70</v>
+      </c>
+      <c r="E369" t="s">
+        <v>296</v>
+      </c>
+      <c r="F369" t="s">
+        <v>302</v>
+      </c>
+      <c r="G369" t="s">
+        <v>311</v>
+      </c>
+      <c r="H369">
+        <v>600</v>
+      </c>
+      <c r="I369">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" t="s">
+        <v>9</v>
+      </c>
+      <c r="B370" t="s">
+        <v>8</v>
+      </c>
+      <c r="C370" s="2">
+        <v>45616.39305555556</v>
+      </c>
+      <c r="D370" t="s">
+        <v>288</v>
+      </c>
+      <c r="E370" t="s">
+        <v>296</v>
+      </c>
+      <c r="G370" t="s">
+        <v>8</v>
+      </c>
+      <c r="H370">
+        <v>600</v>
+      </c>
+      <c r="I370">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" t="s">
+        <v>9</v>
+      </c>
+      <c r="B371" t="s">
+        <v>15</v>
+      </c>
+      <c r="C371" s="2">
+        <v>45616.39305555556</v>
+      </c>
+      <c r="D371" t="s">
+        <v>289</v>
+      </c>
+      <c r="E371" t="s">
+        <v>296</v>
+      </c>
+      <c r="F371" t="s">
+        <v>307</v>
+      </c>
+      <c r="G371" t="s">
+        <v>312</v>
+      </c>
+      <c r="H371">
+        <v>600</v>
+      </c>
+      <c r="I371">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" t="s">
+        <v>9</v>
+      </c>
+      <c r="B372" t="s">
+        <v>13</v>
+      </c>
+      <c r="C372" s="2">
+        <v>45616.39305555556</v>
+      </c>
+      <c r="D372" t="s">
+        <v>290</v>
+      </c>
+      <c r="E372" t="s">
+        <v>296</v>
+      </c>
+      <c r="F372" t="s">
+        <v>304</v>
+      </c>
+      <c r="H372">
+        <v>600</v>
+      </c>
+      <c r="I372">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" t="s">
+        <v>9</v>
+      </c>
+      <c r="B373" t="s">
+        <v>14</v>
+      </c>
+      <c r="C373" s="2">
+        <v>45616.39305555556</v>
+      </c>
+      <c r="D373" t="s">
+        <v>265</v>
+      </c>
+      <c r="E373" t="s">
+        <v>296</v>
+      </c>
+      <c r="F373" t="s">
+        <v>305</v>
+      </c>
+      <c r="H373">
+        <v>600</v>
+      </c>
+      <c r="I373">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" t="s">
+        <v>9</v>
+      </c>
+      <c r="B374" t="s">
+        <v>16</v>
+      </c>
+      <c r="C374" s="2">
+        <v>45636.00048611111</v>
+      </c>
+      <c r="D374" t="s">
+        <v>291</v>
+      </c>
+      <c r="G374" t="s">
+        <v>313</v>
+      </c>
+      <c r="H374">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" t="s">
+        <v>9</v>
+      </c>
+      <c r="B375" t="s">
+        <v>10</v>
+      </c>
+      <c r="C375" s="2">
+        <v>45636.38333333333</v>
+      </c>
+      <c r="D375" t="s">
+        <v>136</v>
+      </c>
+      <c r="E375" t="s">
+        <v>296</v>
+      </c>
+      <c r="F375" t="s">
+        <v>306</v>
+      </c>
+      <c r="G375" t="s">
+        <v>309</v>
+      </c>
+      <c r="H375">
+        <v>600</v>
+      </c>
+      <c r="I375">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" t="s">
+        <v>9</v>
+      </c>
+      <c r="B376" t="s">
+        <v>11</v>
+      </c>
+      <c r="C376" s="2">
+        <v>45636.38333333333</v>
+      </c>
+      <c r="D376" t="s">
+        <v>292</v>
+      </c>
+      <c r="E376" t="s">
+        <v>296</v>
+      </c>
+      <c r="F376" t="s">
+        <v>298</v>
+      </c>
+      <c r="G376" t="s">
+        <v>310</v>
+      </c>
+      <c r="H376">
+        <v>600</v>
+      </c>
+      <c r="I376">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" t="s">
+        <v>9</v>
+      </c>
+      <c r="B377" t="s">
+        <v>12</v>
+      </c>
+      <c r="C377" s="2">
+        <v>45636.38333333333</v>
+      </c>
+      <c r="D377" t="s">
+        <v>293</v>
+      </c>
+      <c r="E377" t="s">
+        <v>296</v>
+      </c>
+      <c r="F377" t="s">
+        <v>302</v>
+      </c>
+      <c r="G377" t="s">
+        <v>311</v>
+      </c>
+      <c r="H377">
+        <v>600</v>
+      </c>
+      <c r="I377">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378" t="s">
+        <v>8</v>
+      </c>
+      <c r="C378" s="2">
+        <v>45636.38333333333</v>
+      </c>
+      <c r="D378" t="s">
+        <v>132</v>
+      </c>
+      <c r="E378" t="s">
+        <v>296</v>
+      </c>
+      <c r="G378" t="s">
+        <v>8</v>
+      </c>
+      <c r="H378">
+        <v>600</v>
+      </c>
+      <c r="I378">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" t="s">
+        <v>9</v>
+      </c>
+      <c r="B379" t="s">
+        <v>15</v>
+      </c>
+      <c r="C379" s="2">
+        <v>45636.38333333333</v>
+      </c>
+      <c r="D379" t="s">
+        <v>111</v>
+      </c>
+      <c r="E379" t="s">
+        <v>296</v>
+      </c>
+      <c r="F379" t="s">
+        <v>307</v>
+      </c>
+      <c r="G379" t="s">
+        <v>312</v>
+      </c>
+      <c r="H379">
+        <v>600</v>
+      </c>
+      <c r="I379">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" t="s">
+        <v>9</v>
+      </c>
+      <c r="B380" t="s">
+        <v>13</v>
+      </c>
+      <c r="C380" s="2">
+        <v>45636.38333333333</v>
+      </c>
+      <c r="D380" t="s">
+        <v>294</v>
+      </c>
+      <c r="E380" t="s">
+        <v>296</v>
+      </c>
+      <c r="F380" t="s">
+        <v>304</v>
+      </c>
+      <c r="H380">
+        <v>600</v>
+      </c>
+      <c r="I380">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
+        <v>9</v>
+      </c>
+      <c r="B381" t="s">
+        <v>14</v>
+      </c>
+      <c r="C381" s="2">
+        <v>45636.38333333333</v>
+      </c>
+      <c r="D381" t="s">
+        <v>295</v>
+      </c>
+      <c r="E381" t="s">
+        <v>296</v>
+      </c>
+      <c r="F381" t="s">
+        <v>305</v>
+      </c>
+      <c r="H381">
+        <v>600</v>
+      </c>
+      <c r="I381">
+        <v>7.63</v>
       </c>
     </row>
   </sheetData>

--- a/data/Lakes/LakeWestmere_e88f03fff6.xlsx
+++ b/data/Lakes/LakeWestmere_e88f03fff6.xlsx
@@ -64,7 +64,7 @@
     <t>Nitrate Nitrogen (NO3)</t>
   </si>
   <si>
-    <t>BIOVOL</t>
+    <t>Cyanobacteria Biovolume</t>
   </si>
   <si>
     <t>0.0100</t>
